--- a/Data/2008 STOP Summary.xlsx
+++ b/Data/2008 STOP Summary.xlsx
@@ -19405,7 +19405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S199"/>
+  <dimension ref="A1:P199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
@@ -23383,7 +23383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z199"/>
+  <dimension ref="A1:W199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
@@ -29046,7 +29046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y199"/>
+  <dimension ref="A1:V199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -34666,7 +34666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -37963,7 +37963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>

--- a/Data/2008 STOP Summary.xlsx
+++ b/Data/2008 STOP Summary.xlsx
@@ -19405,7 +19405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
@@ -23224,119 +23224,9 @@
         <v>1247116.39</v>
       </c>
     </row>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="33" t="n"/>
     </row>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="N2:N3"/>
@@ -23383,7 +23273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W199"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
@@ -28884,118 +28774,9 @@
       <c r="P89" s="66" t="n"/>
       <c r="S89" s="66" t="n"/>
     </row>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="33" t="n"/>
     </row>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="Q2:Q3"/>
@@ -29046,7 +28827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V199"/>
+  <dimension ref="A1:U99"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -34505,115 +34286,9 @@
       <c r="P92" s="66" t="n"/>
       <c r="Q92" s="66" t="n"/>
     </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
     <row r="99">
       <c r="A99" s="32" t="n"/>
     </row>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="T2:T3"/>
@@ -34666,7 +34341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -37812,117 +37487,9 @@
     <row r="90">
       <c r="G90" s="66" t="n"/>
     </row>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
     <row r="95">
       <c r="A95" s="32" t="n"/>
     </row>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="L2:L3"/>
@@ -37963,7 +37530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
@@ -39886,116 +39453,9 @@
     <row r="91">
       <c r="A91" s="31" t="n"/>
     </row>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
     <row r="96">
       <c r="A96" s="32" t="n"/>
     </row>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A57:B58"/>
@@ -40031,7 +39491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
@@ -42231,115 +41691,9 @@
       <c r="D92" s="66" t="n"/>
       <c r="E92" s="66" t="n"/>
     </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
     <row r="97">
       <c r="A97" s="32" t="n"/>
     </row>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A59:B60"/>
@@ -42376,7 +41730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -44080,117 +43434,12 @@
     <row r="92">
       <c r="A92" s="31" t="n"/>
     </row>
-    <row r="93"/>
     <row r="94">
       <c r="E94" s="62" t="n"/>
     </row>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
     <row r="98">
       <c r="A98" s="32" t="n"/>
     </row>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E2:E3"/>
